--- a/data/trans_orig/P14A26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4AB3E056-3807-49F8-A4FA-81250625F03E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D189815-CC69-4702-9DA2-980E3B6B1EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C01F1493-1012-4ECD-9BB5-60D1ED5DD635}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B89C402-B30C-4D49-AFD9-3D3F05A26602}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -96,7 +96,7 @@
     <t>55,51%</t>
   </si>
   <si>
-    <t>12,85%</t>
+    <t>11,34%</t>
   </si>
   <si>
     <t>90,24%</t>
@@ -114,7 +114,7 @@
     <t>9,76%</t>
   </si>
   <si>
-    <t>87,15%</t>
+    <t>88,66%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>59,35%</t>
+    <t>57,94%</t>
   </si>
   <si>
     <t>63,25%</t>
@@ -153,7 +153,7 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>40,65%</t>
+    <t>42,06%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -189,43 +189,43 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>51,75%</t>
+    <t>49,18%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>76,18%</t>
+    <t>66,08%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>42,9%</t>
   </si>
   <si>
     <t>81,09%</t>
   </si>
   <si>
-    <t>48,25%</t>
+    <t>50,82%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>23,82%</t>
+    <t>33,92%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
+    <t>57,1%</t>
+  </si>
+  <si>
+    <t>94,32%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -288,55 +288,55 @@
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>14,96%</t>
+  </si>
+  <si>
+    <t>40,23%</t>
   </si>
   <si>
     <t>30,15%</t>
   </si>
   <si>
-    <t>19,48%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
+    <t>19,6%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
   </si>
   <si>
     <t>28,33%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>37,96%</t>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>36,93%</t>
   </si>
   <si>
     <t>73,83%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>69,85%</t>
   </si>
   <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>80,52%</t>
+    <t>56,77%</t>
+  </si>
+  <si>
+    <t>80,4%</t>
   </si>
   <si>
     <t>71,67%</t>
   </si>
   <si>
-    <t>62,04%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>63,07%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -366,19 +366,19 @@
     <t>49,8%</t>
   </si>
   <si>
-    <t>59,77%</t>
+    <t>19,39%</t>
   </si>
   <si>
     <t>50,2%</t>
   </si>
   <si>
-    <t>40,23%</t>
+    <t>80,61%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>56,16%</t>
+    <t>55,2%</t>
   </si>
   <si>
     <t>51,49%</t>
@@ -387,16 +387,16 @@
     <t>27,61%</t>
   </si>
   <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>59,05%</t>
   </si>
   <si>
     <t>86,56%</t>
   </si>
   <si>
-    <t>43,84%</t>
+    <t>44,8%</t>
   </si>
   <si>
     <t>48,51%</t>
@@ -405,61 +405,61 @@
     <t>72,39%</t>
   </si>
   <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
+    <t>40,95%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>40,26%</t>
+    <t>41,65%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>46,1%</t>
+    <t>45,53%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>59,74%</t>
+    <t>58,35%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>53,9%</t>
+    <t>54,47%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>55,76%</t>
   </si>
   <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>72,11%</t>
+    <t>37,48%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
   </si>
   <si>
     <t>45,06%</t>
@@ -474,19 +474,19 @@
     <t>49,07%</t>
   </si>
   <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
   </si>
   <si>
     <t>44,24%</t>
   </si>
   <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
   </si>
   <si>
     <t>54,94%</t>
@@ -501,64 +501,64 @@
     <t>50,93%</t>
   </si>
   <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>62,66%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>25,95%</t>
-  </si>
-  <si>
-    <t>51,98%</t>
+    <t>24,57%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>51,79%</t>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>52,12%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>29,13%</t>
-  </si>
-  <si>
-    <t>47,69%</t>
+    <t>29,8%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>48,02%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
+    <t>47,18%</t>
+  </si>
+  <si>
+    <t>75,43%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>48,21%</t>
-  </si>
-  <si>
-    <t>71,88%</t>
+    <t>47,88%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>52,31%</t>
-  </si>
-  <si>
-    <t>70,87%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>70,2%</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0324C745-B14D-4BF2-89CB-E12182103A86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A5319-EA42-4820-AF24-5F35E0CDC205}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DF92BE5-7B58-44C4-8A52-EA2DAB8F577A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBF7513-6426-4D88-BF2D-AAABDA65C764}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2623,10 +2623,10 @@
         <v>2772</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2674,13 +2674,13 @@
         <v>1866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>16</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14A26-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14A26-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D189815-CC69-4702-9DA2-980E3B6B1EB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{53A1D463-EC38-43B3-B820-490DF0834906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5B89C402-B30C-4D49-AFD9-3D3F05A26602}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{6316807F-721B-44B7-B930-97FAEA6A4D6D}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -96,10 +96,10 @@
     <t>55,51%</t>
   </si>
   <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
   </si>
   <si>
     <t>59,67%</t>
@@ -111,10 +111,10 @@
     <t>44,49%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>88,66%</t>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,7 +138,7 @@
     <t>20,87%</t>
   </si>
   <si>
-    <t>57,94%</t>
+    <t>60,35%</t>
   </si>
   <si>
     <t>63,25%</t>
@@ -153,7 +153,7 @@
     <t>79,13%</t>
   </si>
   <si>
-    <t>42,06%</t>
+    <t>39,65%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -168,7 +168,7 @@
     <t>21,47%</t>
   </si>
   <si>
-    <t>65,04%</t>
+    <t>55,65%</t>
   </si>
   <si>
     <t>52,06%</t>
@@ -180,7 +180,7 @@
     <t>78,53%</t>
   </si>
   <si>
-    <t>34,96%</t>
+    <t>44,35%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -189,43 +189,43 @@
     <t>18,91%</t>
   </si>
   <si>
-    <t>49,18%</t>
+    <t>49,88%</t>
   </si>
   <si>
     <t>16,37%</t>
   </si>
   <si>
-    <t>66,08%</t>
+    <t>67,1%</t>
   </si>
   <si>
     <t>17,98%</t>
   </si>
   <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>42,9%</t>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>42,94%</t>
   </si>
   <si>
     <t>81,09%</t>
   </si>
   <si>
-    <t>50,82%</t>
+    <t>50,12%</t>
   </si>
   <si>
     <t>83,63%</t>
   </si>
   <si>
-    <t>33,92%</t>
+    <t>32,9%</t>
   </si>
   <si>
     <t>82,02%</t>
   </si>
   <si>
-    <t>57,1%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
+    <t>57,06%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -234,151 +234,151 @@
     <t>21,44%</t>
   </si>
   <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
   </si>
   <si>
     <t>34,39%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>50,91%</t>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>49,56%</t>
   </si>
   <si>
     <t>29,34%</t>
   </si>
   <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
+    <t>19,35%</t>
+  </si>
+  <si>
+    <t>41,96%</t>
   </si>
   <si>
     <t>78,56%</t>
   </si>
   <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
   </si>
   <si>
     <t>65,61%</t>
   </si>
   <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>50,44%</t>
+  </si>
+  <si>
+    <t>80,19%</t>
   </si>
   <si>
     <t>70,66%</t>
   </si>
   <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
+    <t>58,04%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
   </si>
   <si>
     <t>26,17%</t>
   </si>
   <si>
-    <t>14,96%</t>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>42,26%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
+  </si>
+  <si>
+    <t>19,41%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>19,29%</t>
+  </si>
+  <si>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>80,59%</t>
+  </si>
+  <si>
+    <t>71,67%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
+  </si>
+  <si>
+    <t>80,71%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que recibe medicación o terapia por hipoacusia en 2016 (Tasa respuesta: 1,75%)</t>
+  </si>
+  <si>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>24,45%</t>
+  </si>
+  <si>
+    <t>75,55%</t>
+  </si>
+  <si>
+    <t>49,8%</t>
+  </si>
+  <si>
+    <t>59,77%</t>
+  </si>
+  <si>
+    <t>19,39%</t>
+  </si>
+  <si>
+    <t>50,2%</t>
   </si>
   <si>
     <t>40,23%</t>
   </si>
   <si>
-    <t>30,15%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>28,33%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>59,77%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
-  </si>
-  <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>71,67%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
-  </si>
-  <si>
-    <t>79,65%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que recibe medicación o terapia por hipoacusia en 2015 (Tasa respuesta: 1,75%)</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>24,45%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>49,8%</t>
-  </si>
-  <si>
-    <t>19,39%</t>
-  </si>
-  <si>
-    <t>50,2%</t>
-  </si>
-  <si>
     <t>80,61%</t>
   </si>
   <si>
     <t>13,44%</t>
   </si>
   <si>
-    <t>55,2%</t>
+    <t>55,41%</t>
   </si>
   <si>
     <t>51,49%</t>
@@ -387,16 +387,16 @@
     <t>27,61%</t>
   </si>
   <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>59,05%</t>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
   </si>
   <si>
     <t>86,56%</t>
   </si>
   <si>
-    <t>44,8%</t>
+    <t>44,59%</t>
   </si>
   <si>
     <t>48,51%</t>
@@ -405,160 +405,160 @@
     <t>72,39%</t>
   </si>
   <si>
-    <t>40,95%</t>
-  </si>
-  <si>
-    <t>91,53%</t>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
   </si>
   <si>
     <t>8,69%</t>
   </si>
   <si>
-    <t>41,65%</t>
+    <t>40,5%</t>
   </si>
   <si>
     <t>14,91%</t>
   </si>
   <si>
-    <t>45,53%</t>
+    <t>41,2%</t>
   </si>
   <si>
     <t>12,06%</t>
   </si>
   <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
   </si>
   <si>
     <t>91,31%</t>
   </si>
   <si>
-    <t>58,35%</t>
+    <t>59,5%</t>
   </si>
   <si>
     <t>85,09%</t>
   </si>
   <si>
-    <t>54,47%</t>
+    <t>58,8%</t>
   </si>
   <si>
     <t>87,94%</t>
   </si>
   <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>68,39%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
   </si>
   <si>
     <t>55,76%</t>
   </si>
   <si>
-    <t>37,48%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>71,77%</t>
   </si>
   <si>
     <t>45,06%</t>
   </si>
   <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>60,95%</t>
   </si>
   <si>
     <t>49,07%</t>
   </si>
   <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
+    <t>37,19%</t>
+  </si>
+  <si>
+    <t>60,82%</t>
   </si>
   <si>
     <t>44,24%</t>
   </si>
   <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>62,52%</t>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>61,14%</t>
   </si>
   <si>
     <t>54,94%</t>
   </si>
   <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
+    <t>39,05%</t>
+  </si>
+  <si>
+    <t>69,87%</t>
   </si>
   <si>
     <t>50,93%</t>
   </si>
   <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
+    <t>39,18%</t>
+  </si>
+  <si>
+    <t>62,81%</t>
   </si>
   <si>
     <t>37,75%</t>
   </si>
   <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>52,82%</t>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
   </si>
   <si>
     <t>38,84%</t>
   </si>
   <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>52,12%</t>
+    <t>26,21%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
   </si>
   <si>
     <t>38,4%</t>
   </si>
   <si>
-    <t>29,8%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
+    <t>29,84%</t>
+  </si>
+  <si>
+    <t>47,73%</t>
   </si>
   <si>
     <t>62,25%</t>
   </si>
   <si>
-    <t>47,18%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
   </si>
   <si>
     <t>61,16%</t>
   </si>
   <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>73,79%</t>
   </si>
   <si>
     <t>61,6%</t>
   </si>
   <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>70,2%</t>
+    <t>52,27%</t>
+  </si>
+  <si>
+    <t>70,16%</t>
   </si>
 </sst>
 </file>
@@ -970,7 +970,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A5319-EA42-4820-AF24-5F35E0CDC205}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73440B48-A63F-4131-BC9E-466B4A2E9CF4}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2171,7 +2171,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EBF7513-6426-4D88-BF2D-AAABDA65C764}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E7A7C15-F87A-4E39-A140-8E88ABC75C55}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2463,7 +2463,7 @@
         <v>15</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
       <c r="M7" s="7">
         <v>1</v>
@@ -2478,7 +2478,7 @@
         <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2506,10 +2506,10 @@
         <v>2697</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -2521,10 +2521,10 @@
         <v>2697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>16</v>
@@ -2608,7 +2608,7 @@
         <v>1852</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>15</v>
@@ -2623,10 +2623,10 @@
         <v>2772</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>16</v>
@@ -2659,7 +2659,7 @@
         <v>1866</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>15</v>
@@ -2674,7 +2674,7 @@
         <v>1866</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>15</v>
